--- a/Arduino/voltage_test/C3.xlsx
+++ b/Arduino/voltage_test/C3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Time [s], Analyzer Name, Decoded Protocol Result</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>@</t>
+  </si>
+  <si>
+    <t>RSSI1</t>
+  </si>
+  <si>
+    <t>RSSI2</t>
+  </si>
+  <si>
+    <t>RSSI_MAX</t>
+  </si>
+  <si>
+    <t>(Band * 8  + Kanal) - 1</t>
   </si>
 </sst>
 </file>
@@ -888,23 +900,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +926,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -920,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -931,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -939,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -950,7 +964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -958,7 +972,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -969,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="E9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -991,31 +1008,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="E11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="E12">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
